--- a/数据.xlsx
+++ b/数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,59 +65,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$5.8 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.4 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3.0\times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_{x1}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_{x2}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_{x3}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=2.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/5000$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \\ $R_h=3.0(k\Omega )$\\ $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$7.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2.9 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2.0 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$1.9 \times 10^3$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$5.8 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$1.4 \times 10^3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$3.0\times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$R_{x1}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$R_{x2}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$R_{x3}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=2.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/5000$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=4.0V \\ $R_h=3.0(k\Omega )$\\ $R_1/R_2=500/500$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$7.2 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$2.9 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$2.0 \times 10^2$</t>
+    <t>$1.8 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$6.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.6 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3.2\times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_1/R_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_x$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +201,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,17 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G12"/>
+      <selection activeCell="A15" sqref="A15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="10" width="12.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -485,9 +519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -508,12 +542,19 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <f>(4)/(1.3*10^-6*(500+500+C2+F2+(47+0)*(2+500/F2+C2/500)))</f>
+        <v>1826.1667852702674</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -534,11 +575,18 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <f>(4)/(1.3*10^-6*(50+500+C3+F3+(47+0)*(2+50/F3+C3/500)))</f>
+        <v>621.7352960250131</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,11 +606,18 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="0">(4)/(1.3*10^-6*(500+500+C4+F4+(47+0)*(2+500/F4+C4/500)))</f>
+        <v>1608.3291434869952</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,12 +637,19 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1608.3291434869952</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -608,10 +670,17 @@
         <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>320.53500409435617</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -632,9 +701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>360</v>
@@ -652,12 +721,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>360</v>
@@ -675,12 +744,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>3600</v>
@@ -698,12 +767,12 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>360</v>
@@ -721,13 +790,70 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,51 +89,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E=2.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/5000$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \\ $R_h=3.0(k\Omega )$\\ $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$7.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2.9 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2.0 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.9 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.8 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$6.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.6 \times 10^3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3.2\times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_1/R_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_x$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R_{x2}$</t>
+  </si>
+  <si>
+    <t>$R_{x2}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E=2.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/500$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=4.0V \\ $R_h=0(\Omega )$\\ $R_1/R_2=500/5000$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E=4.0V \\ $R_h=3.0(k\Omega )$\\ $R_1/R_2=500/500$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$7.2 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$2.9 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$2.0 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$1.9 \times 10^3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$1.8 \times 10^3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$6.2 \times 10^2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$1.6 \times 10^3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$3.2\times 10^2$</t>
+    <t>E=4.0V \&amp; $R_h=0(\Omega )$ \&amp; $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \&amp; $R_h=0(\Omega )$ \&amp; $R_1/R_2=50/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=2.0V \&amp; $R_h=0(\Omega )$ \&amp; $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \&amp; $R_h=0(\Omega )$ \&amp; $R_1/R_2=500/5000$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4.0V \&amp; $R_h=3(k\Omega )$ \&amp; $R_1/R_2=500/500$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验\Ronum[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验\Ronum1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验\Ronum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验\Ronum2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,11 +204,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$R_1/R_2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$R_x$</t>
+    <t>$8.0 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2.2 \times 10^2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验\Ronum2(与\Ronum1中相同实验条件省略)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$S_{\mbox{理论}}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$S_{\mbox{实际}}$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +285,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -486,20 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,18 +637,18 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <f>(4)/(1.3*10^-6*(500+500+C2+F2+(47+0)*(2+500/F2+C2/500)))</f>
         <v>1826.1667852702674</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -582,11 +677,11 @@
         <v>621.7352960250131</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,11 +708,11 @@
         <v>1608.3291434869952</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +739,7 @@
         <v>1608.3291434869952</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -677,7 +772,7 @@
         <v>320.53500409435617</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -703,7 +798,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>360</v>
@@ -723,10 +818,14 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I9">
+        <f>SQRT((0.001*F2)^2+(0.2*F2/1900)^2)</f>
+        <v>4.8164642897926317E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>360</v>
@@ -744,12 +843,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((0.001*F3)^2+(0.2*F3/580)^2)</f>
+        <v>0.38080208234924606</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((0.001*B10)^2+(0.2*B10/720)^2)</f>
+        <v>0.37363083384538809</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>3600</v>
@@ -767,12 +874,20 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I10:I13" si="1">SQRT((0.001*F4)^2+(0.2*F4/J4)^2)</f>
+        <v>0.36277276682450399</v>
+      </c>
+      <c r="J11">
+        <f>SQRT((0.001*E11)^2+(0.2*E11/300)^2)</f>
+        <v>0.43266615305567868</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>360</v>
@@ -790,28 +905,42 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.36277276682450399</v>
+      </c>
+      <c r="J12">
+        <f>SQRT((0.001*B12)^2+(0.2*B12/200)^2)</f>
+        <v>0.50911688245431419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I13">
+        <f>SQRT((0.001*F6)^2+(0.2*F6/300)^2)</f>
+        <v>4.8783108757027778</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -828,32 +957,456 @@
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <f>(2)/(1.3*10^-6*(500+500+B10+E10+(47+0)*(2+500/E10+B10/500)))</f>
+        <v>804.16457174349762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <f>(4)/(1.3*10^-6*(500+5000+B11+E11+(47+0)*(2+500/E11+B11/5000)))</f>
+        <v>318.74914900617824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18">
+        <f>(4)/(1.3*10^-6*(500+500+B12+E12+(47+3000)*(2+500/E12+B12/500)))</f>
+        <v>216.07932963644808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4.8186409996345429E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.37816765750141579</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4.7843233545014652</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.37363083384538809</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.43266615305567868</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.50911688245431419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4.8186409996345429E-2</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.37816765750141579</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4.7843233545014652</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.37363083384538809</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.43266615305567868</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.50911688245431419</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -285,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -593,8 +593,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -681,7 +681,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,7 +712,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +819,8 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <f>SQRT((0.001*F2)^2+(0.2*F2/1900)^2)</f>
-        <v>4.8164642897926317E-2</v>
+        <f>SQRT(3*(0.001*F2)^2+(0.2*F2/1900)^2)</f>
+        <v>8.3118306199565714E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -846,12 +846,12 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <f>SQRT((0.001*F3)^2+(0.2*F3/580)^2)</f>
-        <v>0.38080208234924606</v>
+        <f>SQRT(3*(0.001*F3)^2+(0.2*F3/580)^2)</f>
+        <v>0.63577529514878295</v>
       </c>
       <c r="J10">
-        <f>SQRT((0.001*B10)^2+(0.2*B10/720)^2)</f>
-        <v>0.37363083384538809</v>
+        <f>SQRT(3*(0.001*B10)^2+(0.2*B10/720)^2)</f>
+        <v>0.63150613615387774</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -877,12 +877,12 @@
         <v>21</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I10:I13" si="1">SQRT((0.001*F4)^2+(0.2*F4/J4)^2)</f>
-        <v>0.36277276682450399</v>
+        <f>SQRT(3*(0.001*F4)^2+(0.2*F4/J4)^2)</f>
+        <v>0.62514324786364439</v>
       </c>
       <c r="J11">
-        <f>SQRT((0.001*E11)^2+(0.2*E11/300)^2)</f>
-        <v>0.43266615305567868</v>
+        <f>SQRT(3*(0.001*E11)^2+(0.2*E11/300)^2)</f>
+        <v>0.6681317235396026</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -908,18 +908,18 @@
         <v>22</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.36277276682450399</v>
+        <f>SQRT(3*(0.001*F5)^2+(0.2*F5/J5)^2)</f>
+        <v>0.62514324786364439</v>
       </c>
       <c r="J12">
-        <f>SQRT((0.001*B12)^2+(0.2*B12/200)^2)</f>
-        <v>0.50911688245431419</v>
+        <f>SQRT(3*(0.001*B12)^2+(0.2*B12/200)^2)</f>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I13">
-        <f>SQRT((0.001*F6)^2+(0.2*F6/300)^2)</f>
-        <v>4.8783108757027778</v>
+        <f>SQRT(3*(0.001*F6)^2+(0.2*F6/300)^2)</f>
+        <v>7.53318518290902</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -929,11 +929,11 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -987,16 +987,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18">
         <f>(4)/(1.3*10^-6*(500+500+B12+E12+(47+3000)*(2+500/E12+B12/500)))</f>
         <v>216.07932963644808</v>
@@ -1015,11 +1015,11 @@
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
@@ -1048,22 +1048,22 @@
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>4.8186409996345429E-2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.37816765750141579</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>4.7843233545014652</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>0.37363083384538809</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>0.43266615305567868</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.50911688245431419</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1099,11 +1099,11 @@
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>4.8186409996345429E-2</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
@@ -1124,8 +1124,8 @@
       <c r="D25" s="3">
         <v>0.37816765750141579</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1134,18 +1134,18 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>4.7843233545014652</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1154,10 +1154,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1166,29 +1166,29 @@
       <c r="D27" s="3">
         <v>0.37363083384538809</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="3">
         <v>0.43266615305567868</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="3">
         <v>0.50911688245431419</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
@@ -1197,11 +1197,11 @@
       <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1247,8 +1247,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -1265,12 +1265,12 @@
       <c r="E35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1285,13 +1285,13 @@
       <c r="E36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1305,8 +1305,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1318,8 +1318,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
@@ -1346,10 +1346,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1363,8 +1363,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
@@ -1376,8 +1376,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
@@ -1390,6 +1390,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="G24:G26"/>
@@ -1401,12 +1407,6 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +226,26 @@
   </si>
   <si>
     <t>$S_{\mbox{实际}}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$U_{out}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I=4.007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=100.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1412,4 +1433,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>24.4</v>
+      </c>
+      <c r="D2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E2">
+        <v>56.1</v>
+      </c>
+      <c r="F2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G2">
+        <v>85.3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>18.66</v>
+      </c>
+      <c r="D3">
+        <v>29.93</v>
+      </c>
+      <c r="E3">
+        <v>42.91</v>
+      </c>
+      <c r="F3">
+        <v>52.88</v>
+      </c>
+      <c r="G3">
+        <v>64.92</v>
+      </c>
+      <c r="H3">
+        <v>75.97</v>
+      </c>
+      <c r="J3">
+        <v>24.4</v>
+      </c>
+      <c r="K3">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K4">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.STDEV.S(B3:H3)</f>
+        <v>26.589605559494935</v>
+      </c>
+      <c r="J5">
+        <v>56.1</v>
+      </c>
+      <c r="K5">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <f>_xlfn.STDEV.P(B3:H3)</f>
+        <v>24.617191272004391</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.STDEV.S(B2:H2)</f>
+        <v>34.966460120139892</v>
+      </c>
+      <c r="F6">
+        <f>E6*7</f>
+        <v>244.76522084097925</v>
+      </c>
+      <c r="J6">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K6">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f>SLOPE(B3:H3,B2:H2)</f>
+        <v>0.76042459568806631</v>
+      </c>
+      <c r="C7">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="D7">
+        <f>4.007/2</f>
+        <v>2.0034999999999998</v>
+      </c>
+      <c r="E7">
+        <f>100.1</f>
+        <v>100.1</v>
+      </c>
+      <c r="J7">
+        <v>85.3</v>
+      </c>
+      <c r="K7">
+        <v>64.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <f>A7/D7/E7</f>
+        <v>3.791689197690587E-3</v>
+      </c>
+      <c r="D8">
+        <f>(C8/D7)^2/12*(0.5%*C7+0.004)^2</f>
+        <v>1.7242243574843545E-10</v>
+      </c>
+      <c r="E8">
+        <f>(C8/E7)^2*(0.001*E7)^2/3</f>
+        <v>4.7923023239611636E-12</v>
+      </c>
+      <c r="F8">
+        <f>(C8/A7)^2*(0.0014)^2</f>
+        <v>4.8731437532852294E-11</v>
+      </c>
+      <c r="J8" s="6">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>75.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <f>SQRT(D8+E8+F8)</f>
+        <v>1.5031506099032422E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>